--- a/biology/Botanique/Allophycocyanine/Allophycocyanine.xlsx
+++ b/biology/Botanique/Allophycocyanine/Allophycocyanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'allophycocyanine est une famille de pigments bleus des phycobiliprotéines, qui se situent principalement chez les cyanobactéries et les algues rouges (Rhodophyta)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allophycocyanine est une famille de pigments bleus des phycobiliprotéines, qui se situent principalement chez les cyanobactéries et les algues rouges (Rhodophyta).
 C'est un pigment assimilateur qui absorbe les longueurs d'onde autour de 650 nm.
 </t>
         </is>
